--- a/data/trans_orig/P05A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>144520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122806</v>
+        <v>125282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166074</v>
+        <v>164607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2925117819220343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2485635096192991</v>
+        <v>0.2535734927938631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3361381752074351</v>
+        <v>0.3331696911477405</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -765,19 +765,19 @@
         <v>157079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139597</v>
+        <v>136171</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177329</v>
+        <v>178751</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.336004820945979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2986110976311452</v>
+        <v>0.2912813746673662</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.379322090811813</v>
+        <v>0.3823641827214005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>306</v>
@@ -786,19 +786,19 @@
         <v>301598</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>275271</v>
+        <v>272918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>329102</v>
+        <v>331321</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3136572852728635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.286277640398201</v>
+        <v>0.2838305316241867</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3422603861522331</v>
+        <v>0.3445685908327579</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>349544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>327990</v>
+        <v>329457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>371258</v>
+        <v>368782</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7074882180779658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6638618247925649</v>
+        <v>0.6668303088522595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.751436490380701</v>
+        <v>0.7464265072061371</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>328</v>
@@ -836,19 +836,19 @@
         <v>310410</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>290160</v>
+        <v>288738</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>327892</v>
+        <v>331318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6639951790540209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6206779091881871</v>
+        <v>0.6176358172785994</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7013889023688548</v>
+        <v>0.7087186253326334</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>682</v>
@@ -857,19 +857,19 @@
         <v>659955</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>632451</v>
+        <v>630232</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>686282</v>
+        <v>688635</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6863427147271365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.657739613847767</v>
+        <v>0.6554314091672424</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.713722359601799</v>
+        <v>0.7161694683758135</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>205426</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>178675</v>
+        <v>179796</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>229547</v>
+        <v>232661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2793054608641516</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2429338434969101</v>
+        <v>0.2444583754386571</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3121010667168528</v>
+        <v>0.3163350497155673</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>184</v>
@@ -982,19 +982,19 @@
         <v>199481</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>175751</v>
+        <v>178416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>223421</v>
+        <v>226810</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3189181082016064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2809797484588078</v>
+        <v>0.2852403565343911</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3571915058725639</v>
+        <v>0.3626093429950389</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>377</v>
@@ -1003,19 +1003,19 @@
         <v>404907</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>373241</v>
+        <v>369592</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>442569</v>
+        <v>442455</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2975110346730134</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2742440348128847</v>
+        <v>0.271562600107711</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3251833401811622</v>
+        <v>0.3250998770292021</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>530063</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>505942</v>
+        <v>502828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>556814</v>
+        <v>555693</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7206945391358484</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.687898933283147</v>
+        <v>0.6836649502844327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7570661565030897</v>
+        <v>0.7555416245613429</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>407</v>
@@ -1053,19 +1053,19 @@
         <v>426013</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>402073</v>
+        <v>398684</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>449743</v>
+        <v>447078</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6810818917983936</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6428084941274361</v>
+        <v>0.6373906570049611</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7190202515411922</v>
+        <v>0.7147596434656089</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>917</v>
@@ -1074,19 +1074,19 @@
         <v>956075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>918413</v>
+        <v>918527</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>987741</v>
+        <v>991390</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7024889653269867</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6748166598188378</v>
+        <v>0.6749001229707979</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7257559651871153</v>
+        <v>0.7284373998922888</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>191276</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>167034</v>
+        <v>170614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213159</v>
+        <v>218026</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2994917358677407</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2615346129661117</v>
+        <v>0.2671396331290876</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3337551409824042</v>
+        <v>0.3413753943666251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>250</v>
@@ -1199,19 +1199,19 @@
         <v>259056</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>233134</v>
+        <v>234471</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>284800</v>
+        <v>285093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.375583502488303</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3380007163587774</v>
+        <v>0.3399386930584605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4129067319384621</v>
+        <v>0.4133314655248227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>426</v>
@@ -1220,19 +1220,19 @@
         <v>450332</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>413937</v>
+        <v>417027</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>485668</v>
+        <v>485634</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3390004615113845</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3116027604014775</v>
+        <v>0.3139287565972009</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.365600194684375</v>
+        <v>0.3655747288983858</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>447392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>425509</v>
+        <v>420642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>471634</v>
+        <v>468054</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7005082641322593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6662448590175957</v>
+        <v>0.6586246056333749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7384653870338883</v>
+        <v>0.7328603668709124</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -1270,19 +1270,19 @@
         <v>430688</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>404944</v>
+        <v>404651</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>456610</v>
+        <v>455273</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.624416497511697</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5870932680615381</v>
+        <v>0.5866685344751774</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6619992836412227</v>
+        <v>0.6600613069415394</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>845</v>
@@ -1291,19 +1291,19 @@
         <v>878080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>842744</v>
+        <v>842778</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>914475</v>
+        <v>911385</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6609995384886155</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.634399805315625</v>
+        <v>0.6344252711016145</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6883972395985224</v>
+        <v>0.6860712434027991</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>169277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>146354</v>
+        <v>147036</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>190762</v>
+        <v>190784</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3260672630254065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2819130416016096</v>
+        <v>0.2832269068353847</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3674521672868882</v>
+        <v>0.3674942273561111</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>179</v>
@@ -1416,19 +1416,19 @@
         <v>184088</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164597</v>
+        <v>160108</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>205424</v>
+        <v>205095</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3570075150248637</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3192082103094501</v>
+        <v>0.3105013233057099</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3983849052530484</v>
+        <v>0.3977462711366322</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>337</v>
@@ -1437,19 +1437,19 @@
         <v>353365</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>324064</v>
+        <v>321599</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>387623</v>
+        <v>384565</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3414849883847135</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3131694157070488</v>
+        <v>0.3107874859707401</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3745911253727338</v>
+        <v>0.3716360489972582</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>349870</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>328385</v>
+        <v>328363</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372793</v>
+        <v>372111</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6739327369745935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6325478327131119</v>
+        <v>0.632505772643889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7180869583983905</v>
+        <v>0.7167730931646153</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>323</v>
@@ -1487,19 +1487,19 @@
         <v>331554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>310218</v>
+        <v>310547</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>351045</v>
+        <v>355534</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6429924849751363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6016150947469514</v>
+        <v>0.6022537288633676</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6807917896905497</v>
+        <v>0.6894986766942898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>649</v>
@@ -1508,19 +1508,19 @@
         <v>681424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>647166</v>
+        <v>650224</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>710725</v>
+        <v>713190</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6585150116152865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6254088746272661</v>
+        <v>0.6283639510027419</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6868305842929511</v>
+        <v>0.6892125140292598</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>117153</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98297</v>
+        <v>99682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135028</v>
+        <v>136663</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3029471158441943</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2541878101335083</v>
+        <v>0.2577694521085795</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3491717701458035</v>
+        <v>0.3533995902616538</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -1633,19 +1633,19 @@
         <v>148221</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131554</v>
+        <v>130856</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167667</v>
+        <v>168238</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3668956808333171</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3256395878780743</v>
+        <v>0.3239116615748123</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4150305029001697</v>
+        <v>0.4164459401748821</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -1654,19 +1654,19 @@
         <v>265373</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239288</v>
+        <v>240090</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>290975</v>
+        <v>290081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3356200055122456</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3026300152994024</v>
+        <v>0.3036437824086052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3679980707177137</v>
+        <v>0.3668675656321438</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>269557</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>251682</v>
+        <v>250047</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>288413</v>
+        <v>287028</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6970528841558057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6508282298541966</v>
+        <v>0.6466004097383459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7458121898664917</v>
+        <v>0.74223054789142</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>251</v>
@@ -1704,19 +1704,19 @@
         <v>255765</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>236319</v>
+        <v>235748</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>272432</v>
+        <v>273130</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6331043191666829</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5849694970998304</v>
+        <v>0.5835540598251179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6743604121219258</v>
+        <v>0.676088338425188</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>526</v>
@@ -1725,19 +1725,19 @@
         <v>525323</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>499721</v>
+        <v>500615</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>551408</v>
+        <v>550606</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6643799944877544</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6320019292822864</v>
+        <v>0.6331324343678563</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6973699847005977</v>
+        <v>0.6963562175913949</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>80690</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66569</v>
+        <v>66712</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94584</v>
+        <v>95034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2757842213917616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2275220731090603</v>
+        <v>0.2280110950398918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.323272885874291</v>
+        <v>0.3248092474788373</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -1850,19 +1850,19 @@
         <v>116616</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>99549</v>
+        <v>99708</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>131558</v>
+        <v>133601</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3400549502258015</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2902861575744526</v>
+        <v>0.2907506793967815</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3836258724189827</v>
+        <v>0.3895824289391731</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>213</v>
@@ -1871,19 +1871,19 @@
         <v>197306</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>177506</v>
+        <v>176834</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>220418</v>
+        <v>220743</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3104656195058532</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2793099702267906</v>
+        <v>0.2782528386974122</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.346831979261827</v>
+        <v>0.3473432674788324</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>211893</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197999</v>
+        <v>197549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226014</v>
+        <v>225871</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7242157786082384</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6767271141257101</v>
+        <v>0.6751907525211627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7724779268909397</v>
+        <v>0.7719889049601083</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>245</v>
@@ -1921,19 +1921,19 @@
         <v>226318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211376</v>
+        <v>209333</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243385</v>
+        <v>243226</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6599450497741985</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6163741275810173</v>
+        <v>0.6104175710608271</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7097138424255474</v>
+        <v>0.7092493206032187</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>461</v>
@@ -1942,19 +1942,19 @@
         <v>438211</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>415099</v>
+        <v>414774</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>458011</v>
+        <v>458683</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6895343804941468</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.653168020738173</v>
+        <v>0.6526567325211677</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7206900297732095</v>
+        <v>0.7217471613025879</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>59038</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47900</v>
+        <v>47833</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71791</v>
+        <v>72821</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2812899525708386</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2282228223306226</v>
+        <v>0.2279036384769156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3420525312036593</v>
+        <v>0.3469610247993732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -2067,19 +2067,19 @@
         <v>98149</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82266</v>
+        <v>82226</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>115817</v>
+        <v>115983</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2939400969039744</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2463719457819062</v>
+        <v>0.2462548507569198</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3468527319294241</v>
+        <v>0.3473507542881738</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>147</v>
@@ -2088,19 +2088,19 @@
         <v>157187</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135859</v>
+        <v>136282</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>180215</v>
+        <v>181126</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2890576138667573</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2498360756149537</v>
+        <v>0.2506144744589033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.331404455469865</v>
+        <v>0.3330808818444435</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>150845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>138092</v>
+        <v>137062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161983</v>
+        <v>162050</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7187100474291613</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6579474687963407</v>
+        <v>0.6530389752006269</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7717771776693774</v>
+        <v>0.7720963615230845</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>206</v>
@@ -2138,19 +2138,19 @@
         <v>235759</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>218091</v>
+        <v>217925</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>251642</v>
+        <v>251682</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7060599030960256</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.653147268070576</v>
+        <v>0.6526492457118265</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7536280542180939</v>
+        <v>0.7537451492430804</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>363</v>
@@ -2159,19 +2159,19 @@
         <v>386604</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>363576</v>
+        <v>362665</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>407932</v>
+        <v>407509</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7109423861332427</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.668595544530135</v>
+        <v>0.6669191181555565</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7501639243850455</v>
+        <v>0.7493855255410966</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>967378</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>919850</v>
+        <v>920691</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1018650</v>
+        <v>1024420</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2952436177848578</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.280737893077274</v>
+        <v>0.2809946008227046</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3108917787262384</v>
+        <v>0.3126527666479297</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1129</v>
@@ -2284,19 +2284,19 @@
         <v>1162691</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1102129</v>
+        <v>1106220</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1214945</v>
+        <v>1219746</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3440730259216244</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3261511653591103</v>
+        <v>0.3273618084042295</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3595365054260688</v>
+        <v>0.3609574382287812</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2068</v>
@@ -2305,19 +2305,19 @@
         <v>2130069</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2053923</v>
+        <v>2054348</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2203949</v>
+        <v>2205759</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3200348790026891</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3085942606506412</v>
+        <v>0.3086580730625506</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3311349645034042</v>
+        <v>0.3314070318207269</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2309165</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2257893</v>
+        <v>2252123</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2356693</v>
+        <v>2355852</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7047563822151421</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6891082212737616</v>
+        <v>0.6873472333520709</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7192621069227259</v>
+        <v>0.7190053991772958</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2168</v>
@@ -2355,19 +2355,19 @@
         <v>2216506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2164252</v>
+        <v>2159451</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2277068</v>
+        <v>2272977</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6559269740783755</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6404634945739313</v>
+        <v>0.6390425617712188</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6738488346408897</v>
+        <v>0.6726381915957704</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4443</v>
@@ -2376,19 +2376,19 @@
         <v>4525672</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4451792</v>
+        <v>4449982</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4601818</v>
+        <v>4601393</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6799651209973109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6688650354965957</v>
+        <v>0.6685929681792731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6914057393493588</v>
+        <v>0.6913419269374494</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>163870</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>141918</v>
+        <v>144326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184699</v>
+        <v>185649</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3615897845838102</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3131495979287513</v>
+        <v>0.3184641858551958</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.407550459972469</v>
+        <v>0.4096453080706165</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>154</v>
@@ -2744,19 +2744,19 @@
         <v>157912</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137112</v>
+        <v>138668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>178189</v>
+        <v>177865</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.367907667841838</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3194475462896179</v>
+        <v>0.3230724424023633</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4151490181516651</v>
+        <v>0.414395157502156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>317</v>
@@ -2765,19 +2765,19 @@
         <v>321782</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>291456</v>
+        <v>293382</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>349181</v>
+        <v>350375</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3646628892171309</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3302958856561956</v>
+        <v>0.3324781145572935</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3957128260181206</v>
+        <v>0.3970664961087948</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>289324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>268495</v>
+        <v>267545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>311276</v>
+        <v>308868</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6384102154161898</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.592449540027531</v>
+        <v>0.5903546919293834</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6868504020712486</v>
+        <v>0.6815358141448041</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -2815,19 +2815,19 @@
         <v>271304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251027</v>
+        <v>251351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292104</v>
+        <v>290548</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.632092332158162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5848509818483349</v>
+        <v>0.5856048424978439</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6805524537103822</v>
+        <v>0.6769275575976367</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>548</v>
@@ -2836,19 +2836,19 @@
         <v>560628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>533229</v>
+        <v>532035</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>590954</v>
+        <v>589028</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.635337110782869</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6042871739818795</v>
+        <v>0.6029335038912053</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6697041143438045</v>
+        <v>0.6675218854427065</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>271972</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>247007</v>
+        <v>246234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>299612</v>
+        <v>298792</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3967239195605802</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3603082438716016</v>
+        <v>0.3591804480663103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4370429293767379</v>
+        <v>0.4358472265830852</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>220</v>
@@ -2961,19 +2961,19 @@
         <v>232271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>206571</v>
+        <v>207355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>256816</v>
+        <v>257727</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3806123778048111</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3384999149282794</v>
+        <v>0.339783517197785</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4208341128994394</v>
+        <v>0.422327394463279</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>476</v>
@@ -2982,19 +2982,19 @@
         <v>504242</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>471084</v>
+        <v>468182</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537465</v>
+        <v>540370</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3891362051135958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.36354692917003</v>
+        <v>0.3613073108183774</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4147750570153164</v>
+        <v>0.4170169831252095</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>413572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>385932</v>
+        <v>386752</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>438537</v>
+        <v>439310</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6032760804394198</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5629570706232621</v>
+        <v>0.5641527734169148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6396917561283983</v>
+        <v>0.6408195519336898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>351</v>
@@ -3032,19 +3032,19 @@
         <v>377984</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>353439</v>
+        <v>352528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>403684</v>
+        <v>402900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6193876221951889</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5791658871005606</v>
+        <v>0.5776726055367211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6615000850717206</v>
+        <v>0.6602164828022153</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>761</v>
@@ -3053,19 +3053,19 @@
         <v>791557</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>758334</v>
+        <v>755429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>824715</v>
+        <v>827617</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6108637948864042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5852249429846836</v>
+        <v>0.5829830168747906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.63645307082997</v>
+        <v>0.6386926891816226</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>261567</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>236700</v>
+        <v>235160</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>289646</v>
+        <v>289064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3840162910748736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3475073945045066</v>
+        <v>0.3452470511066592</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4252394050410059</v>
+        <v>0.4243853767190389</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>273</v>
@@ -3178,19 +3178,19 @@
         <v>287587</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>262432</v>
+        <v>260082</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>316488</v>
+        <v>314814</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4055478291303208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3700750411073598</v>
+        <v>0.366761721347517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.446303670797889</v>
+        <v>0.4439432388874313</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>526</v>
@@ -3199,19 +3199,19 @@
         <v>549153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>512430</v>
+        <v>512432</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>585590</v>
+        <v>585211</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3949988425065113</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3685843768098662</v>
+        <v>0.3685857098105486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4212072895013658</v>
+        <v>0.420934206490111</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>419569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>391490</v>
+        <v>392072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>444436</v>
+        <v>445976</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6159837089251264</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5747605949589941</v>
+        <v>0.5756146232809606</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6524926054954934</v>
+        <v>0.6547529488933405</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>393</v>
@@ -3249,19 +3249,19 @@
         <v>421544</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>392643</v>
+        <v>394317</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>446699</v>
+        <v>449049</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5944521708696792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.553696329202111</v>
+        <v>0.5560567611125687</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6299249588926402</v>
+        <v>0.6332382786524829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>790</v>
@@ -3270,19 +3270,19 @@
         <v>841113</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>804676</v>
+        <v>805055</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>877836</v>
+        <v>877834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6050011574934887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5787927104986342</v>
+        <v>0.5790657935098888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6314156231901334</v>
+        <v>0.6314142901894514</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>246365</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>223543</v>
+        <v>219980</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274806</v>
+        <v>271812</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4015128904215636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3643176673096717</v>
+        <v>0.3585107673104709</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4478644230713759</v>
+        <v>0.4429837252665803</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>234</v>
@@ -3395,19 +3395,19 @@
         <v>269027</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>244733</v>
+        <v>243564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>296933</v>
+        <v>295992</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4373433379167546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3978499596480492</v>
+        <v>0.3959505529388369</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4827094724789889</v>
+        <v>0.481180038921917</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>460</v>
@@ -3416,19 +3416,19 @@
         <v>515392</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>479877</v>
+        <v>479589</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>553977</v>
+        <v>551925</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4194506506242678</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3905466161654139</v>
+        <v>0.3903120434754555</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4508528707049468</v>
+        <v>0.4491825666287192</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>367228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338787</v>
+        <v>341781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>390050</v>
+        <v>393613</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5984871095784364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5521355769286241</v>
+        <v>0.5570162747334197</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6356823326903285</v>
+        <v>0.641489232689529</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>304</v>
@@ -3466,19 +3466,19 @@
         <v>346111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>318205</v>
+        <v>319146</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370405</v>
+        <v>371574</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5626566620832455</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5172905275210112</v>
+        <v>0.518819961078083</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6021500403519507</v>
+        <v>0.6040494470611631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>625</v>
@@ -3487,19 +3487,19 @@
         <v>713339</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>674754</v>
+        <v>676806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>748854</v>
+        <v>749142</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5805493493757322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5491471292950532</v>
+        <v>0.5508174333712809</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6094533838345861</v>
+        <v>0.6096879565245444</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>186692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>165461</v>
+        <v>165292</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>208730</v>
+        <v>206407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4347443527966455</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.385303553726412</v>
+        <v>0.384911861046718</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4860629280868634</v>
+        <v>0.4806540697449704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -3612,19 +3612,19 @@
         <v>175410</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>152502</v>
+        <v>153988</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196998</v>
+        <v>195702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3935235174804018</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3421315171705461</v>
+        <v>0.3454651728002832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4419542698501238</v>
+        <v>0.4390477534456804</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>333</v>
@@ -3633,19 +3633,19 @@
         <v>362102</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>333555</v>
+        <v>333881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>395557</v>
+        <v>395745</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4137497578817499</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3811310386387115</v>
+        <v>0.381504102833494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4519764243685546</v>
+        <v>0.4521912794295693</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>242737</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>220699</v>
+        <v>223022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>263968</v>
+        <v>264137</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5652556472033545</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5139370719131365</v>
+        <v>0.5193459302550295</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.614696446273588</v>
+        <v>0.615088138953282</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>246</v>
@@ -3683,19 +3683,19 @@
         <v>270332</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>248744</v>
+        <v>250040</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>293240</v>
+        <v>291754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6064764825195982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5580457301498757</v>
+        <v>0.5609522465543195</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6578684828294536</v>
+        <v>0.6545348271997169</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>464</v>
@@ -3704,19 +3704,19 @@
         <v>513069</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>479614</v>
+        <v>479426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>541616</v>
+        <v>541290</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5862502421182501</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5480235756314454</v>
+        <v>0.5478087205704306</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6188689613612885</v>
+        <v>0.618495897166506</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>136418</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>115931</v>
+        <v>117719</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155089</v>
+        <v>155986</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.440362859653259</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3742307546321307</v>
+        <v>0.3800004389541238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5006320719432261</v>
+        <v>0.5035279951692969</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>136</v>
@@ -3829,19 +3829,19 @@
         <v>141889</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>123825</v>
+        <v>122937</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>159151</v>
+        <v>161558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4008210164597626</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3497912042529869</v>
+        <v>0.3472831154238554</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4495837958647473</v>
+        <v>0.456384373470537</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>260</v>
@@ -3850,19 +3850,19 @@
         <v>278307</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>254713</v>
+        <v>250846</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>304653</v>
+        <v>304441</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.419275137360766</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.383730306092707</v>
+        <v>0.3779040497115304</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4589655808396239</v>
+        <v>0.4586461348385434</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>173368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154697</v>
+        <v>153800</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193855</v>
+        <v>192067</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5596371403467411</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4993679280567739</v>
+        <v>0.4964720048307032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6257692453678695</v>
+        <v>0.6199995610458762</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>208</v>
@@ -3900,19 +3900,19 @@
         <v>212107</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194845</v>
+        <v>192438</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>230171</v>
+        <v>231059</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5991789835402374</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5504162041352525</v>
+        <v>0.5436156265294632</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.650208795747013</v>
+        <v>0.6527168845761447</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>366</v>
@@ -3921,19 +3921,19 @@
         <v>385475</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>359129</v>
+        <v>359341</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>409069</v>
+        <v>412936</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5807248626392341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5410344191603762</v>
+        <v>0.5413538651614564</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6162696939072928</v>
+        <v>0.6220959502884696</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>91750</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>75132</v>
+        <v>75807</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107221</v>
+        <v>108512</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3689438693986499</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3021177923379682</v>
+        <v>0.3048351300841461</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.431156008494062</v>
+        <v>0.4363481821165804</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>138</v>
@@ -4046,19 +4046,19 @@
         <v>151498</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>129368</v>
+        <v>130671</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>171447</v>
+        <v>172050</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3894766084734263</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.332583275636143</v>
+        <v>0.3359340535802932</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4407606204785187</v>
+        <v>0.442312347431489</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>221</v>
@@ -4067,19 +4067,19 @@
         <v>243248</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>220499</v>
+        <v>218181</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>269676</v>
+        <v>270811</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3814690035011117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3457935630969584</v>
+        <v>0.3421579357671605</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4229131927539932</v>
+        <v>0.4246932387379503</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>156933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>141462</v>
+        <v>140171</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>173551</v>
+        <v>172876</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6310561306013501</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5688439915059379</v>
+        <v>0.5636518178834199</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6978822076620318</v>
+        <v>0.6951648699158539</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>212</v>
@@ -4117,19 +4117,19 @@
         <v>237481</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>217532</v>
+        <v>216929</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>259611</v>
+        <v>258308</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6105233915265738</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5592393795214814</v>
+        <v>0.557687652568511</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6674167243638569</v>
+        <v>0.6640659464197068</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>350</v>
@@ -4138,19 +4138,19 @@
         <v>394414</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>367986</v>
+        <v>366851</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>417163</v>
+        <v>419481</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6185309964988883</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5770868072460067</v>
+        <v>0.5753067612620496</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6542064369030415</v>
+        <v>0.6578420642328392</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1358635</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1298721</v>
+        <v>1296184</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1422966</v>
+        <v>1423122</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3971032046022192</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3795916139937504</v>
+        <v>0.3788499154973507</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4159060776412247</v>
+        <v>0.4159516617265092</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1313</v>
@@ -4263,19 +4263,19 @@
         <v>1415593</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1356906</v>
+        <v>1353373</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1479147</v>
+        <v>1474414</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3984827164994792</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3819625533530212</v>
+        <v>0.3809681368805406</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4163729689347302</v>
+        <v>0.4150405642030029</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2593</v>
@@ -4284,19 +4284,19 @@
         <v>2774228</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2691764</v>
+        <v>2690298</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2860511</v>
+        <v>2862893</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3978059265144636</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3859810807130303</v>
+        <v>0.3857709410091506</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4101783018810876</v>
+        <v>0.4105199054624102</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2062730</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1998399</v>
+        <v>1998243</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2122644</v>
+        <v>2125181</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6028967953977808</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5840939223587753</v>
+        <v>0.5840483382734907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6204083860062496</v>
+        <v>0.6211500845026493</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1980</v>
@@ -4334,19 +4334,19 @@
         <v>2136865</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2073311</v>
+        <v>2078044</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2195552</v>
+        <v>2199085</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6015172835005208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5836270310652695</v>
+        <v>0.5849594357969972</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6180374466469786</v>
+        <v>0.6190318631194595</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3904</v>
@@ -4355,19 +4355,19 @@
         <v>4199595</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4113312</v>
+        <v>4110930</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4282059</v>
+        <v>4283525</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6021940734855364</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5898216981189125</v>
+        <v>0.5894800945375898</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6140189192869697</v>
+        <v>0.6142290589908493</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>147669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>129049</v>
+        <v>128429</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>168341</v>
+        <v>166718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3520418663445408</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3076526594965281</v>
+        <v>0.306174545043672</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4013246173957248</v>
+        <v>0.3974555764210271</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>135</v>
@@ -4723,19 +4723,19 @@
         <v>133713</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>115615</v>
+        <v>114930</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>152388</v>
+        <v>151021</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3378685211093873</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.292138726567419</v>
+        <v>0.2904059158109605</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3850572518160668</v>
+        <v>0.3816015069776655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>273</v>
@@ -4744,19 +4744,19 @@
         <v>281382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>253749</v>
+        <v>254001</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>311180</v>
+        <v>308824</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3451612868242319</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3112649163606253</v>
+        <v>0.3115741107802695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3817138980443096</v>
+        <v>0.3788239984977088</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>271794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>251122</v>
+        <v>252745</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290414</v>
+        <v>291034</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6479581336554593</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5986753826042753</v>
+        <v>0.6025444235789729</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.692347340503472</v>
+        <v>0.693825454956328</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>269</v>
@@ -4794,19 +4794,19 @@
         <v>262042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243367</v>
+        <v>244734</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>280140</v>
+        <v>280825</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6621314788906127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6149427481839331</v>
+        <v>0.6183984930223344</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.707861273432581</v>
+        <v>0.7095940841890396</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>524</v>
@@ -4815,19 +4815,19 @@
         <v>533836</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>504038</v>
+        <v>506394</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>561469</v>
+        <v>561217</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6548387131757681</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6182861019556904</v>
+        <v>0.6211760015022916</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6887350836393749</v>
+        <v>0.6884258892197307</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>216955</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>191817</v>
+        <v>193623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>238544</v>
+        <v>239951</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3674112521632438</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3248399808115771</v>
+        <v>0.3278996921558376</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4039725823660287</v>
+        <v>0.4063558401830247</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>221</v>
@@ -4940,19 +4940,19 @@
         <v>216353</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194138</v>
+        <v>195027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>237944</v>
+        <v>237632</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3839148382981327</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3444954731767259</v>
+        <v>0.3460724378895245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4222286034958554</v>
+        <v>0.421674369982265</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>431</v>
@@ -4961,19 +4961,19 @@
         <v>433308</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>401623</v>
+        <v>401156</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>467762</v>
+        <v>466745</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3754703247796441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3480146842663062</v>
+        <v>0.3476103281475627</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4053255091852326</v>
+        <v>0.4044444426596533</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>373541</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>351952</v>
+        <v>350545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>398679</v>
+        <v>396873</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6325887478367562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5960274176339713</v>
+        <v>0.5936441598169752</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6751600191884229</v>
+        <v>0.6721003078441622</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>358</v>
@@ -5011,19 +5011,19 @@
         <v>347191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325600</v>
+        <v>325912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369406</v>
+        <v>368517</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6160851617018673</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5777713965041447</v>
+        <v>0.5783256300177351</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6555045268232741</v>
+        <v>0.6539275621104755</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>715</v>
@@ -5032,19 +5032,19 @@
         <v>720732</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>686278</v>
+        <v>687295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>752417</v>
+        <v>752884</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6245296752203559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5946744908147676</v>
+        <v>0.5955555573403472</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6519853157336939</v>
+        <v>0.6523896718524372</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>223548</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>199702</v>
+        <v>199814</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246828</v>
+        <v>247189</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3341036135122759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2984656817349206</v>
+        <v>0.2986326526997315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3688969125995712</v>
+        <v>0.3694370624573506</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>247</v>
@@ -5157,19 +5157,19 @@
         <v>249009</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>224254</v>
+        <v>224716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>273445</v>
+        <v>272991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3764959442326988</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.339067060022883</v>
+        <v>0.3397646212594169</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4134426270061358</v>
+        <v>0.4127553361069334</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>460</v>
@@ -5178,19 +5178,19 @@
         <v>472557</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>438122</v>
+        <v>438215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>504978</v>
+        <v>509532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3551769429162528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3292951482148012</v>
+        <v>0.3293654505917001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3795445130322221</v>
+        <v>0.3829674229607946</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>445549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>422269</v>
+        <v>421908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>469395</v>
+        <v>469283</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6658963864877241</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6311030874004289</v>
+        <v>0.6305629375426494</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7015343182650794</v>
+        <v>0.7013673473002685</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>418</v>
@@ -5228,19 +5228,19 @@
         <v>412377</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>387941</v>
+        <v>388395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>437132</v>
+        <v>436670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6235040557673012</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5865573729938642</v>
+        <v>0.5872446638930665</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.660932939977117</v>
+        <v>0.660235378740583</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>843</v>
@@ -5249,19 +5249,19 @@
         <v>857926</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>825505</v>
+        <v>820951</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>892361</v>
+        <v>892268</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6448230570837471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6204554869677779</v>
+        <v>0.6170325770392057</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6707048517851988</v>
+        <v>0.6706345494082998</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>251777</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>227484</v>
+        <v>226596</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>277444</v>
+        <v>279701</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3904847370129488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3528079182733372</v>
+        <v>0.3514309137234803</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4302923434257691</v>
+        <v>0.433791862393261</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>234</v>
@@ -5374,19 +5374,19 @@
         <v>255276</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>229955</v>
+        <v>227706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>279949</v>
+        <v>280934</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3932900932411674</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.354280585932956</v>
+        <v>0.3508149779929757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.431302835028983</v>
+        <v>0.4328207960043801</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>460</v>
@@ -5395,19 +5395,19 @@
         <v>507053</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>474306</v>
+        <v>473304</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>547496</v>
+        <v>546370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3918920723441089</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.36658283931054</v>
+        <v>0.3658086527753951</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4231500130491254</v>
+        <v>0.4222797629107617</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>393004</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>367337</v>
+        <v>365080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>417297</v>
+        <v>418185</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6095152629870512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5697076565742306</v>
+        <v>0.5662081376067393</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6471920817266626</v>
+        <v>0.6485690862765197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -5445,19 +5445,19 @@
         <v>393801</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369128</v>
+        <v>368143</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>419122</v>
+        <v>421371</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6067099067588326</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.568697164971017</v>
+        <v>0.5671792039956197</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6457194140670439</v>
+        <v>0.6491850220070241</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>723</v>
@@ -5466,19 +5466,19 @@
         <v>786805</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>746362</v>
+        <v>747488</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>819552</v>
+        <v>820554</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6081079276558911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5768499869508749</v>
+        <v>0.5777202370892383</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.63341716068946</v>
+        <v>0.6341913472246049</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>177046</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>155023</v>
+        <v>157636</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202023</v>
+        <v>199824</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3704535560698256</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3243724257403603</v>
+        <v>0.3298385295911303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4227144784140233</v>
+        <v>0.418114133348623</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>159</v>
@@ -5591,19 +5591,19 @@
         <v>185987</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>163565</v>
+        <v>162426</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>209965</v>
+        <v>208931</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3743339242343132</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3292046370247418</v>
+        <v>0.3269113126558621</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.42259321152598</v>
+        <v>0.4205128979913655</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>315</v>
@@ -5612,19 +5612,19 @@
         <v>363034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>332231</v>
+        <v>334370</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>393026</v>
+        <v>396215</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3724314205726438</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3408313038263675</v>
+        <v>0.3430255584163279</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4031998385540588</v>
+        <v>0.4064718166606953</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>300872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>275895</v>
+        <v>278094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>322895</v>
+        <v>320282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6295464439301744</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5772855215859757</v>
+        <v>0.581885866651377</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6756275742596393</v>
+        <v>0.6701614704088694</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>274</v>
@@ -5662,19 +5662,19 @@
         <v>310862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>286884</v>
+        <v>287918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>333284</v>
+        <v>334423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6256660757656868</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5774067884740199</v>
+        <v>0.5794871020086346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.670795362975258</v>
+        <v>0.673088687344138</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>542</v>
@@ -5683,19 +5683,19 @@
         <v>611733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>581741</v>
+        <v>578552</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>642536</v>
+        <v>640397</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6275685794273561</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5968001614459413</v>
+        <v>0.5935281833393047</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6591686961736325</v>
+        <v>0.6569744415836722</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>128527</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>111976</v>
+        <v>110723</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147415</v>
+        <v>146154</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3844324376080469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3349259015894716</v>
+        <v>0.3311795329036233</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4409278165816606</v>
+        <v>0.4371561344713396</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>127</v>
@@ -5808,19 +5808,19 @@
         <v>137293</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>117522</v>
+        <v>119874</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155001</v>
+        <v>159419</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3644356200683487</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3119553334677697</v>
+        <v>0.3181994746561499</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4114409859126545</v>
+        <v>0.4231675628333004</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>251</v>
@@ -5829,19 +5829,19 @@
         <v>265820</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>239750</v>
+        <v>238181</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>289895</v>
+        <v>293025</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3738378697652353</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3371747433267059</v>
+        <v>0.3349673030963481</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4076965332668571</v>
+        <v>0.4120981016095435</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>205803</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186915</v>
+        <v>188176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222354</v>
+        <v>223607</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6155675623919531</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5590721834183388</v>
+        <v>0.5628438655286604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6650740984105283</v>
+        <v>0.6688204670963764</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>226</v>
@@ -5879,19 +5879,19 @@
         <v>239434</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221726</v>
+        <v>217308</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>259205</v>
+        <v>256853</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6355643799316513</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5885590140873455</v>
+        <v>0.5768324371666996</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6880446665322304</v>
+        <v>0.6818005253438501</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>427</v>
@@ -5900,19 +5900,19 @@
         <v>445237</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>421162</v>
+        <v>418032</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>471307</v>
+        <v>472876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6261621302347647</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.592303466733143</v>
+        <v>0.5879018983904564</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6628252566732944</v>
+        <v>0.6650326969036519</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>75289</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61477</v>
+        <v>62471</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88397</v>
+        <v>91156</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2929549480498946</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2392107428040099</v>
+        <v>0.2430788544326168</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3439605439831089</v>
+        <v>0.3546970326275072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -6025,19 +6025,19 @@
         <v>119236</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>99641</v>
+        <v>98215</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>140215</v>
+        <v>140252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2989125314786742</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2497901650251569</v>
+        <v>0.2462150477741676</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3515062149005183</v>
+        <v>0.3515974885404768</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -6046,19 +6046,19 @@
         <v>194524</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169722</v>
+        <v>170184</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>217462</v>
+        <v>218476</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2965781870082815</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.258764292524591</v>
+        <v>0.2594686908802941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3315497655167819</v>
+        <v>0.333095067980717</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>181709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>168601</v>
+        <v>165842</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195521</v>
+        <v>194527</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7070450519501054</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6560394560168913</v>
+        <v>0.6453029673724932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.76078925719599</v>
+        <v>0.7569211455673844</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>210</v>
@@ -6096,19 +6096,19 @@
         <v>279662</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>258683</v>
+        <v>258646</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>299257</v>
+        <v>300683</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7010874685213258</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6484937850994817</v>
+        <v>0.6484025114595234</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7502098349748432</v>
+        <v>0.7537849522258324</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>424</v>
@@ -6117,19 +6117,19 @@
         <v>461372</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>438434</v>
+        <v>437420</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>486174</v>
+        <v>485712</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7034218129917185</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6684502344832181</v>
+        <v>0.666904932019283</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.741235707475409</v>
+        <v>0.7405313091197059</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1220811</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1159393</v>
+        <v>1162998</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1278340</v>
+        <v>1273123</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3597939833130324</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3416930709360902</v>
+        <v>0.3427556206614477</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.376748923100042</v>
+        <v>0.3752113350045632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1213</v>
@@ -6242,19 +6242,19 @@
         <v>1296867</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1234767</v>
+        <v>1244425</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1353218</v>
+        <v>1360797</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3661152302898898</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.348583962360794</v>
+        <v>0.3513104935364176</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3820237300248164</v>
+        <v>0.384163173848027</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2368</v>
@@ -6263,19 +6263,19 @@
         <v>2517677</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2438256</v>
+        <v>2439942</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2601906</v>
+        <v>2609166</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3630225800516403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3515708194827089</v>
+        <v>0.3518139525961006</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3751675012593411</v>
+        <v>0.3762142398203986</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2172272</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2114743</v>
+        <v>2119960</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2233690</v>
+        <v>2230085</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6402060166869676</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.623251076899958</v>
+        <v>0.6247886649954368</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6583069290639098</v>
+        <v>0.6572443793385525</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2123</v>
@@ -6313,19 +6313,19 @@
         <v>2245369</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2189018</v>
+        <v>2181439</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2307469</v>
+        <v>2297811</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6338847697101102</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6179762699751834</v>
+        <v>0.615836826151972</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.651416037639206</v>
+        <v>0.6486895064635818</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4198</v>
@@ -6334,19 +6334,19 @@
         <v>4417642</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4333413</v>
+        <v>4326153</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4497063</v>
+        <v>4495377</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6369774199483598</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6248324987406589</v>
+        <v>0.6237857601796013</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6484291805172911</v>
+        <v>0.6481860474038994</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>73962</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51591</v>
+        <v>51928</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102770</v>
+        <v>103511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1813703660575493</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1265119184646723</v>
+        <v>0.1273392815363197</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2520139575995305</v>
+        <v>0.2538324022318483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -6702,19 +6702,19 @@
         <v>90413</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69938</v>
+        <v>68598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>115104</v>
+        <v>114603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2494062148016941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1929271239870876</v>
+        <v>0.1892298943769407</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3175164316959572</v>
+        <v>0.3161364662168738</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -6723,19 +6723,19 @@
         <v>164374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134215</v>
+        <v>129560</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199876</v>
+        <v>197095</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2133886038881067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1742359367639455</v>
+        <v>0.1681931554159661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.259475981374694</v>
+        <v>0.2558664829498727</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>333831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>305023</v>
+        <v>304282</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>356202</v>
+        <v>355865</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8186296339424508</v>
+        <v>0.8186296339424506</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7479860424004695</v>
+        <v>0.7461675977681517</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8734880815353278</v>
+        <v>0.8726607184636801</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -6773,19 +6773,19 @@
         <v>272099</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247408</v>
+        <v>247909</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>292574</v>
+        <v>293914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7505937851983058</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6824835683040429</v>
+        <v>0.6838635337831264</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8070728760129122</v>
+        <v>0.8107701056230592</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>300</v>
@@ -6794,19 +6794,19 @@
         <v>605931</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>570429</v>
+        <v>573210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>636090</v>
+        <v>640745</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7866113961118935</v>
+        <v>0.7866113961118931</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7405240186253063</v>
+        <v>0.7441335170501274</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8257640632360546</v>
+        <v>0.8318068445840342</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>87878</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67700</v>
+        <v>64972</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>112763</v>
+        <v>111916</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1842738920290437</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1419624302771232</v>
+        <v>0.1362401564582569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2364557005967405</v>
+        <v>0.234679405365838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -6919,19 +6919,19 @@
         <v>101719</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82482</v>
+        <v>84435</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121106</v>
+        <v>122148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2027360866637463</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1643937990446455</v>
+        <v>0.1682864344567279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2413763539009051</v>
+        <v>0.2434527658502166</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -6940,19 +6940,19 @@
         <v>189598</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162024</v>
+        <v>160762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>218134</v>
+        <v>216431</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1937393207646891</v>
+        <v>0.193739320764689</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1655629062922078</v>
+        <v>0.1642735515043436</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2228988408963151</v>
+        <v>0.2211588112081556</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>389012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>364127</v>
+        <v>364974</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409190</v>
+        <v>411918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8157261079709561</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7635442994032602</v>
+        <v>0.7653205946341619</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8580375697228771</v>
+        <v>0.8637598435417432</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>369</v>
@@ -6990,19 +6990,19 @@
         <v>400014</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>380627</v>
+        <v>379585</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>419251</v>
+        <v>417298</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7972639133362536</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7586236460990937</v>
+        <v>0.7565472341497834</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8356062009553543</v>
+        <v>0.831713565543272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>619</v>
@@ -7011,19 +7011,19 @@
         <v>789025</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>760489</v>
+        <v>762192</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>816599</v>
+        <v>817861</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8062606792353109</v>
+        <v>0.806260679235311</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7771011591036855</v>
+        <v>0.7788411887918444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8344370937077925</v>
+        <v>0.8357264484956566</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>130626</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110894</v>
+        <v>110421</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154668</v>
+        <v>154394</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2111832973480228</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1792834131032568</v>
+        <v>0.1785180579227399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2500524570886031</v>
+        <v>0.2496107742973299</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -7136,19 +7136,19 @@
         <v>128500</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111053</v>
+        <v>111114</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>144760</v>
+        <v>147669</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2064436184059489</v>
+        <v>0.2064436184059488</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1784139785220881</v>
+        <v>0.1785121475361923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.232567072457505</v>
+        <v>0.2372399558687058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>276</v>
@@ -7157,19 +7157,19 @@
         <v>259126</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>233369</v>
+        <v>230394</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>288141</v>
+        <v>284581</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.208806000308232</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1880510991112997</v>
+        <v>0.1856535278039064</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2321868351877413</v>
+        <v>0.2293178919071686</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>487915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>463873</v>
+        <v>464147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>507647</v>
+        <v>508120</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7888167026519772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7499475429113969</v>
+        <v>0.7503892257026702</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8207165868967431</v>
+        <v>0.8214819420772603</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>682</v>
@@ -7207,19 +7207,19 @@
         <v>493946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>477686</v>
+        <v>474777</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>511393</v>
+        <v>511332</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7935563815940512</v>
+        <v>0.793556381594051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7674329275424949</v>
+        <v>0.7627600441312941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8215860214779116</v>
+        <v>0.8214878524638078</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1115</v>
@@ -7228,19 +7228,19 @@
         <v>981861</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>952846</v>
+        <v>956406</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1007618</v>
+        <v>1010593</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.791193999691768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7678131648122586</v>
+        <v>0.7706821080928313</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8119489008887002</v>
+        <v>0.8143464721960936</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>146618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125656</v>
+        <v>126965</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>168369</v>
+        <v>169063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2092695195147358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.179350171802734</v>
+        <v>0.1812191492321192</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2403160311963413</v>
+        <v>0.2413062323930412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>231</v>
@@ -7353,19 +7353,19 @@
         <v>158601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>139930</v>
+        <v>141167</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>176938</v>
+        <v>174387</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2152313500650922</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1898933158649514</v>
+        <v>0.1915719473313821</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2401152652018742</v>
+        <v>0.236653980139438</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>366</v>
@@ -7374,19 +7374,19 @@
         <v>305219</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>280076</v>
+        <v>275125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>335395</v>
+        <v>332286</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2123256453592088</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1948346540106541</v>
+        <v>0.1913904449193433</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2333174968018759</v>
+        <v>0.2311546075961536</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>553999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>532248</v>
+        <v>531554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>574961</v>
+        <v>573652</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7907304804852644</v>
+        <v>0.7907304804852643</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7596839688036587</v>
+        <v>0.7586937676069588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8206498281972662</v>
+        <v>0.8187808507678807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>910</v>
@@ -7424,19 +7424,19 @@
         <v>578285</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>559948</v>
+        <v>562499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>596956</v>
+        <v>595719</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7847686499349078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7598847347981259</v>
+        <v>0.7633460198605619</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8101066841350486</v>
+        <v>0.8084280526686177</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1440</v>
@@ -7445,19 +7445,19 @@
         <v>1132285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1102109</v>
+        <v>1105218</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1157428</v>
+        <v>1162379</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7876743546407909</v>
+        <v>0.7876743546407911</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.766682503198124</v>
+        <v>0.7688453924038465</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.805165345989346</v>
+        <v>0.8086095550806566</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>98454</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80593</v>
+        <v>83365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>114532</v>
+        <v>116702</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1615737889326772</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1322614589194288</v>
+        <v>0.1368102694989783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1879596616878629</v>
+        <v>0.1915195487787181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>198</v>
@@ -7570,19 +7570,19 @@
         <v>128716</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>114428</v>
+        <v>112461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>144960</v>
+        <v>144337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.211645546991896</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1881520004588866</v>
+        <v>0.1849165724136794</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.238354842510901</v>
+        <v>0.2373305144880775</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>310</v>
@@ -7591,19 +7591,19 @@
         <v>227171</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>204794</v>
+        <v>203713</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>253176</v>
+        <v>250234</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1865854793458818</v>
+        <v>0.1865854793458817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1682061994918378</v>
+        <v>0.1673187779845622</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2079448891141239</v>
+        <v>0.2055280813591201</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>510892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>494814</v>
+        <v>492644</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>528753</v>
+        <v>525981</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8384262110673227</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8120403383121371</v>
+        <v>0.8084804512212819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8677385410805709</v>
+        <v>0.8631897305010217</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>803</v>
@@ -7641,19 +7641,19 @@
         <v>479454</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>463210</v>
+        <v>463833</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>493742</v>
+        <v>495709</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.788354453008104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.761645157489099</v>
+        <v>0.7626694855119226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8118479995411133</v>
+        <v>0.8150834275863205</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1354</v>
@@ -7662,19 +7662,19 @@
         <v>990346</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>964341</v>
+        <v>967283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1012723</v>
+        <v>1013804</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8134145206541183</v>
+        <v>0.8134145206541182</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7920551108858761</v>
+        <v>0.79447191864088</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8317938005081622</v>
+        <v>0.8326812220154377</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>72360</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60103</v>
+        <v>60928</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85441</v>
+        <v>86041</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1777531626455491</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1476436911919604</v>
+        <v>0.149671778633094</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2098877603312788</v>
+        <v>0.2113618670331526</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>139</v>
@@ -7787,19 +7787,19 @@
         <v>79012</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>66766</v>
+        <v>66957</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91474</v>
+        <v>91412</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1799127276089743</v>
+        <v>0.1799127276089742</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1520287160783383</v>
+        <v>0.1524628717592139</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2082895785799239</v>
+        <v>0.2081481089862292</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>243</v>
@@ -7808,19 +7808,19 @@
         <v>151371</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>133550</v>
+        <v>134146</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>169724</v>
+        <v>169958</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1788738864126551</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1578142327255599</v>
+        <v>0.1585186690339082</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2005612178085431</v>
+        <v>0.2008380888384973</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>334720</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321639</v>
+        <v>321039</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>346977</v>
+        <v>346152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8222468373544509</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7901122396687211</v>
+        <v>0.7886381329668481</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8523563088080398</v>
+        <v>0.8503282213669061</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>688</v>
@@ -7858,19 +7858,19 @@
         <v>360154</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>347692</v>
+        <v>347754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>372400</v>
+        <v>372209</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8200872723910257</v>
+        <v>0.8200872723910259</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7917104214200761</v>
+        <v>0.7918518910137707</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8479712839216614</v>
+        <v>0.8475371282407861</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1154</v>
@@ -7879,19 +7879,19 @@
         <v>694875</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>676522</v>
+        <v>676288</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>712696</v>
+        <v>712100</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8211261135873449</v>
+        <v>0.821126113587345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7994387821914568</v>
+        <v>0.7991619111615027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8421857672744399</v>
+        <v>0.8414813309660919</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>45096</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35363</v>
+        <v>36068</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56590</v>
+        <v>56964</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1453771068708577</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1140015778847061</v>
+        <v>0.1162747283867562</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1824333426920586</v>
+        <v>0.183638627496445</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>129</v>
@@ -8004,19 +8004,19 @@
         <v>74345</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63491</v>
+        <v>62472</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>88231</v>
+        <v>86861</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1600171347675215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1366547229802077</v>
+        <v>0.1344618300730273</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1899044304109618</v>
+        <v>0.1869554955139192</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>195</v>
@@ -8025,19 +8025,19 @@
         <v>119441</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>103905</v>
+        <v>104476</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134679</v>
+        <v>137914</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.154155919366585</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1341044766027657</v>
+        <v>0.1348410316050425</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1738220864260522</v>
+        <v>0.1779974299928869</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>265102</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>253608</v>
+        <v>253234</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>274835</v>
+        <v>274130</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8546228931291422</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8175666573079415</v>
+        <v>0.816361372503555</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8859984221152937</v>
+        <v>0.8837252716132438</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>752</v>
@@ -8075,19 +8075,19 @@
         <v>390264</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>376378</v>
+        <v>377748</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>401118</v>
+        <v>402137</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8399828652324784</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8100955695890382</v>
+        <v>0.8130445044860807</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8633452770197922</v>
+        <v>0.8655381699269726</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1144</v>
@@ -8096,19 +8096,19 @@
         <v>655366</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>640128</v>
+        <v>636893</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>670902</v>
+        <v>670331</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.845844080633415</v>
+        <v>0.8458440806334149</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8261779135739478</v>
+        <v>0.8220025700071132</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8658955233972344</v>
+        <v>0.8651589683949574</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>654993</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>607380</v>
+        <v>606166</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>709245</v>
+        <v>707165</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.185525993023515</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1720396067193689</v>
+        <v>0.1716956382849639</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2008927390841384</v>
+        <v>0.2003036316083793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1002</v>
@@ -8221,19 +8221,19 @@
         <v>761307</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>719517</v>
+        <v>720178</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>807557</v>
+        <v>811051</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2038019172690924</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1926147194750338</v>
+        <v>0.1927916764846581</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2161832289214521</v>
+        <v>0.2171185912273697</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1613</v>
@@ -8242,19 +8242,19 @@
         <v>1416300</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1347495</v>
+        <v>1346329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1493304</v>
+        <v>1486056</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1949218412681347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1854523332959428</v>
+        <v>0.1852919334136349</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2055197286570746</v>
+        <v>0.204522147321166</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2875473</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2821221</v>
+        <v>2823301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2923086</v>
+        <v>2924300</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.814474006976485</v>
+        <v>0.8144740069764851</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7991072609158616</v>
+        <v>0.7996963683916208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8279603932806313</v>
+        <v>0.8283043617150361</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4363</v>
@@ -8292,19 +8292,19 @@
         <v>2974216</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2927966</v>
+        <v>2924472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3016006</v>
+        <v>3015345</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7961980827309078</v>
+        <v>0.7961980827309075</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7838167710785476</v>
+        <v>0.7828814087726303</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8073852805249661</v>
+        <v>0.8072083235153419</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7126</v>
@@ -8313,19 +8313,19 @@
         <v>5849689</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5772685</v>
+        <v>5779933</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5918494</v>
+        <v>5919660</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8050781587318654</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7944802713429255</v>
+        <v>0.7954778526788339</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8145476667040572</v>
+        <v>0.814708066586365</v>
       </c>
     </row>
     <row r="27">
